--- a/biology/Médecine/Situs_inversus/Situs_inversus.xlsx
+++ b/biology/Médecine/Situs_inversus/Situs_inversus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Situs inversus (également appelé situs transversus ou oppositus) est un terme de médecine désignant une anomalie congénitale dans laquelle les principaux viscères et organes sont inversés dans une position en miroir par rapport à leur disposition normale (le plan sagittal)[1]. La disposition normale est appelée situs solitus. Elle est définie par la position des oreillettes : à droite pour l'oreillette droite et à gauche pour l'oreillette gauche. Dans le situs inversus, l'oreillette droite est à gauche et l'oreillette gauche à droite. Dans d'autres cas plus rares, le situs ne peut pas être déterminé, affection connue sous le nom de situs ambiguus. Ces affections sont regroupées sous le terme générique d'hétérotaxie.
+Situs inversus (également appelé situs transversus ou oppositus) est un terme de médecine désignant une anomalie congénitale dans laquelle les principaux viscères et organes sont inversés dans une position en miroir par rapport à leur disposition normale (le plan sagittal). La disposition normale est appelée situs solitus. Elle est définie par la position des oreillettes : à droite pour l'oreillette droite et à gauche pour l'oreillette gauche. Dans le situs inversus, l'oreillette droite est à gauche et l'oreillette gauche à droite. Dans d'autres cas plus rares, le situs ne peut pas être déterminé, affection connue sous le nom de situs ambiguus. Ces affections sont regroupées sous le terme générique d'hétérotaxie.
 Le terme situs inversus est une abréviation de la formule latine « situs inversus viscerum », qui signifie « position inversée des organes internes ». La dextrocardie (cœur situé sur le côté droit de la cavité thoracique) a d'abord été identifiée par Marco Aurelio Severino en 1643. Toutefois, le situs inversus proprement dit n’a été décrit pour la première fois que plus d'un siècle après par Matthew Baillie.
-La prévalence du situs inversus varie suivant les groupes de populations, mais est inférieure à 1 sur 10 000 personnes[2],[1].
+La prévalence du situs inversus varie suivant les groupes de populations, mais est inférieure à 1 sur 10 000 personnes,.
 Des recherches portant sur les mutations génétiques associées ont été effectuées et certains gènes isolés, tel que DNAH5 (auparavant appelé HL1, PCD, ou encore CILD3), responsable de la dyskinésie ciliaire primitive qui est présente dans 50 % des cas de situs inversus. Ce gène code une protéine : la chaîne lourde 5 de la dynéine axonémale. La dynéine a un rôle essentiel dans le fonctionnement des cils et des flagelles. Cependant, lors d’un situs inversus, une mutation du gène DNAH5 va avoir des répercussions sur la biochimie de la dynéine : souvent, la dynéine sera présente en quantité insuffisante, ou ne fonctionnera pas correctement, par conséquent les cils ne seront pas assez efficaces et ne pourront donc pas se mouvoir. Une carence en dynéines dans les cils des voies respiratoires est associée au syndrome de Kartagener. De plus, des cils immobiles ou dyskinétiques lors du développement embryonnaire entraînent une latéralisation aléatoire. Cela suggère que des mutations de DNAH5 interviendraient à la fois dans la dyskinésie ciliaire primitive et dans l’hétérotaxie.
 D'autres gènes sont associés au situs inversus comme DNAH11, DNAI1 et DNAI2.
 </t>
@@ -516,10 +528,12 @@
           <t>Conséquences anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet état touche toutes les grandes structures de la cavité thoracique et de l’abdomen. En général, les organes sont simplement transposés par rapport au plan sagittal[1]. Le cœur est situé sur le côté droit du thorax, l’estomac, la rate sur le côté droit de l'abdomen et le foie, ainsi que la vésicule biliaire sur le côté gauche. Le poumon gauche est formé de trois lobes, le poumon droit de deux lobes, tandis que les vaisseaux sanguins, les nerfs, les vaisseaux lymphatiques et les intestins sont également transposés.
-Si le cœur est déporté sur le côté droit du thorax, il s’agit d’une anomalie connue sous le nom de situs inversus avec dextrocardie ou situs inversus totalis. Si le cœur reste dans sa position normale, la partie gauche du thorax, il s’agit d’une affection beaucoup plus rare (1 sur 22 000 personnes dans la population générale), désignée par le terme situs inversus avec levocardie ou situs inversus incompletus. Les personnes atteintes de situs inversus avec levocardie ou de dextrocardie sans situs inversus présentent des taux beaucoup plus élevés de malformations congénitales que celles qui sont affectées de situs inversus avec dextrocardie. De plus, les individus atteint de cette malformation avec une levocardie sont des cas qui s'accompagnent souvent de troubles cardiaques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet état touche toutes les grandes structures de la cavité thoracique et de l’abdomen. En général, les organes sont simplement transposés par rapport au plan sagittal. Le cœur est situé sur le côté droit du thorax, l’estomac, la rate sur le côté droit de l'abdomen et le foie, ainsi que la vésicule biliaire sur le côté gauche. Le poumon gauche est formé de trois lobes, le poumon droit de deux lobes, tandis que les vaisseaux sanguins, les nerfs, les vaisseaux lymphatiques et les intestins sont également transposés.
+Si le cœur est déporté sur le côté droit du thorax, il s’agit d’une anomalie connue sous le nom de situs inversus avec dextrocardie ou situs inversus totalis. Si le cœur reste dans sa position normale, la partie gauche du thorax, il s’agit d’une affection beaucoup plus rare (1 sur 22 000 personnes dans la population générale), désignée par le terme situs inversus avec levocardie ou situs inversus incompletus. Les personnes atteintes de situs inversus avec levocardie ou de dextrocardie sans situs inversus présentent des taux beaucoup plus élevés de malformations congénitales que celles qui sont affectées de situs inversus avec dextrocardie. De plus, les individus atteint de cette malformation avec une levocardie sont des cas qui s'accompagnent souvent de troubles cardiaques.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Signification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le situs inversus est généralement une affection génétique autosomique récessive, bien qu'elle puisse être liée à l'X, ou rencontrée chez des jumeaux monozygotes dits “en miroir”[3].
-En l'absence de malformation cardiaque congénitale, les personnes atteintes de situs inversus ont un phénotype préservé, et peuvent mener une vie normale, sans complication liée à cette affection médicale, l'Américaine Rose Marie Bentley, porteuse de cette anomalie découverte après sa mort en 2017, a ainsi vécu jusqu'à l'âge de 99 ans[4]. Il existe une prévalence de 5 à 10 % de cardiopathies congénitales chez les individus présentant un situs inversus totalis, le plus souvent une transposition des gros vaisseaux. L'incidence des maladies cardiaques congénitales est de 95 % en cas de situs inversus avec lévocardie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le situs inversus est généralement une affection génétique autosomique récessive, bien qu'elle puisse être liée à l'X, ou rencontrée chez des jumeaux monozygotes dits “en miroir”.
+En l'absence de malformation cardiaque congénitale, les personnes atteintes de situs inversus ont un phénotype préservé, et peuvent mener une vie normale, sans complication liée à cette affection médicale, l'Américaine Rose Marie Bentley, porteuse de cette anomalie découverte après sa mort en 2017, a ainsi vécu jusqu'à l'âge de 99 ans. Il existe une prévalence de 5 à 10 % de cardiopathies congénitales chez les individus présentant un situs inversus totalis, le plus souvent une transposition des gros vaisseaux. L'incidence des maladies cardiaques congénitales est de 95 % en cas de situs inversus avec lévocardie.
 Beaucoup d'individus présentant un situs inversus totalis ignorent qu’ils sont porteurs d’une anomalie anatomique jusqu'au jour où ils consultent un médecin pour une autre pathologie. L'inversion des organes peut alors conduire à certaines confusions, car de nombreux signes et symptômes se manifestent du côté opposé à ce qui serait attendu. Par exemple, si un individu atteint de situs inversus présente une appendicite, il se présentera au médecin avec des douleurs abdominales à gauche, puisque c'est de ce côté que se situe son appendice. Ainsi, en cas de problème médical, la prise en compte d'un situs inversus peut accélérer le diagnostic, et les personnes se sachant affectées par cette rare particularité doivent en informer leurs médecins avant un examen, de sorte que le médecin puisse réorienter sa recherche des bruits du cœur et des autres signes cliniques. Le port d'une carte d’information médicale mentionnant cette information peut contribuer à informer les soignants au cas où la personne serait dans l’incapacité de communiquer.
 Le situs inversus complique en outre les transplantations d'organes puisque les donneurs d'organes sont très majoritairement en solitus situs (disposition normale). Comme les cœurs et les foies sont asymétriques, des problèmes de compatibilité géométrique se posent au moment de mettre en place un organe dans une cavité qui a la forme de son image en miroir. Par exemple, lors d'une transplantation cardiaque, il est nécessaire que tous les vaisseaux du cœur transplanté soient raccordés à ceux de l'individu opéré ; cependant, chez un individu présentant un situs inversus, l'orientation de ces vaisseaux est inversée, ce qui nécessite de recourir à des techniques particulières afin que les vaisseaux sanguins se raccordent correctement.
 </t>
@@ -582,7 +598,9 @@
           <t>Syndrome de Kartagener</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ 25 % des personnes porteuses de situs inversus sont atteints d’une affection sous-jacente connue sous le nom de syndrome de Kartagener. Il s’agit d’un dysfonctionnement des cils vibratiles qui se manifeste durant la phase de développement embryonnaire. Le fonctionnement normal des cils permet de déterminer la position des organes internes au début du stade de développement embryonnaire nommé blastocyste, et c'est pourquoi les individus présentant un situs inversus ont une probabilité de 50 % de développer le syndrome. Si c’est le cas, ils présenteront le syndrome de Kartagener, caractérisé par la triade situs inversus, sinusite chronique et bronchectasie. Les cils sont également responsables de la répartition du mucus à l’intérieur du poumon, et son dysfonctionnement provoque une sensibilité accrue aux infections pulmonaires.
 De plus, les sujets masculins atteints par cette pathologie sont souvent stériles : sachant que le flagelle du spermatozoïde est un long cil, ces gamètes ne seront alors pas ou peu mobiles et ne pourront pas remonter les voies utérines féminines.
@@ -614,12 +632,14 @@
           <t>Personnes célèbres présentant un situs inversus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les personnes célèbres présentant un situs inversus documenté citons : 
-Enrique Iglesias, chanteur espagnol[5],[6],[7].
-Randy Foye, joueur de basket-ball américain de la NBA. Il n'a pas eu à souffrir de complication décelable, et son état ne devrait pas compromettre sa carrière professionnelle[8].
-Catherine O'Hara, actrice comique canadienne, a déclaré dans une interview que ses organes étaient inversés et qu’elle avait le cœur du côté droit du thorax[9].
+Enrique Iglesias, chanteur espagnol.
+Randy Foye, joueur de basket-ball américain de la NBA. Il n'a pas eu à souffrir de complication décelable, et son état ne devrait pas compromettre sa carrière professionnelle.
+Catherine O'Hara, actrice comique canadienne, a déclaré dans une interview que ses organes étaient inversés et qu’elle avait le cœur du côté droit du thorax.
 Marcela Iacub, essayiste franco-argentine.</t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Personnages de fiction présentant un situs inversus</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dans Le Rêve de d'Alembert (1769), Diderot décrit le cas d'un charpentier né à Troyes, Jean-Baptise Macé, mort 'tout nouvellement' à la Charité de Paris.
 Dans le roman de Ian Fleming  Dr No, Julius No explique à James Bond qu'il a survécu à une tentative d'assassinat parce que son cœur est situé du côté droit, ce que les tueurs ne savaient pas quand ils l’ont poignardé du côté gauche.
